--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139729.400990168</v>
+        <v>1191298.222741597</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6496027.175077098</v>
+        <v>7089451.944923416</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>124.4665276779717</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>137.1338013495106</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -710,19 +712,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.43755362246723</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>86.7699553768628</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>418.8063263042761</v>
       </c>
       <c r="D5" t="n">
-        <v>141.9821688656539</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>35.20092700998642</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>13.86454771675118</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
-        <v>209.492243867084</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1339,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V10" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>230.1634772944006</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486906734</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1534,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117739</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.14416275345065</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149867</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.462873395896</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>209.65809567044</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2008,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117739</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>16.92574903168567</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.588755294884</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561541</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.64119670414925</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>94.50264048967837</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>86.20228614855843</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57230972412543</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3478,10 +3480,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.9089456912522</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>196.5117101757947</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170495</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,16 +3979,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
-        <v>38.08038463762463</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.13954148002308</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>201.4951714075215</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1476.683845818179</v>
+        <v>1351.042333103999</v>
       </c>
       <c r="C2" t="n">
-        <v>1442.581777042006</v>
+        <v>922.4606588412671</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>890.5912780561157</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>462.009603793384</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932281</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.186649932281</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1922.331195343315</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1503.188731922625</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1498.943012262683</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O3" t="n">
-        <v>1468.481833257574</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P3" t="n">
-        <v>2129.321887799353</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>871.2377163984103</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1609.537010507829</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1331.104009760934</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1044.148501631365</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>772.1220972176561</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>526.7303425510686</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>299.3106718651768</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.691946481611</v>
+        <v>559.3166163358201</v>
       </c>
       <c r="C5" t="n">
-        <v>1347.589877705439</v>
+        <v>136.2799230991775</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>104.4105423140261</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>74.6762015127253</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>557.7649106726453</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2217.900228530731</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2217.900228530731</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2217.900228530731</v>
       </c>
       <c r="W5" t="n">
-        <v>1827.339296006747</v>
+        <v>1813.044773941764</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.196832586058</v>
+        <v>1393.902310521074</v>
       </c>
       <c r="Y5" t="n">
-        <v>1403.951112926115</v>
+        <v>985.6161868207279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>714.2412710704069</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="L6" t="n">
-        <v>714.2412710704069</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2634.504334502149</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1808.125184926109</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.2549115535338</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>540.6465844150651</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>508.7772036299137</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4808,19 +4810,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1840.066707136593</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.983069159478</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.840605738788</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.554482038442</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4892,7 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
         <v>1064.863269197077</v>
@@ -4987,13 +4989,13 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
         <v>2069.115825625685</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1556.022494344318</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1117.880021527741</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1117.880021527741</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335138</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677764</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677764</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1880.509478614942</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M11" t="n">
-        <v>2090.66713212723</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N11" t="n">
-        <v>2090.66713212723</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O11" t="n">
-        <v>2090.66713212723</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.464528249915</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1982.322064829226</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1982.322064829226</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056517</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723523</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797587</v>
+        <v>952.7568773477146</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629836</v>
+        <v>780.1951658309396</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645063</v>
+        <v>614.3171730324623</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152436</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>236.0047077152436</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>70.41343274107123</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>70.41343274107123</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562943</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141398</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394503</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264934</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851225</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184638</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.0210344987458</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2054.481388074135</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1616.338915257558</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1180.429130432002</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>746.6543855902976</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>746.6543855902976</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2565542135614</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2586.252755711921</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2586.252755711921</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2223.635805645747</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2223.635805645747</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2223.635805645747</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2223.635805645747</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677764</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677764</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1431.424115479778</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>958.4775062304152</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>785.9157947136401</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>620.0378019151628</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>450.2797981659001</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2148.473562391138</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1861.518054261568</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.49164984786</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1377.715795635294</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1150.296124949402</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5515,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
         <v>852.6195887352246</v>
@@ -5540,10 +5542,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5552,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882665</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.75728936589</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674124</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2701.823733979957</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2455.944287558412</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2177.511286811517</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1890.555778681948</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.52937426824</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1373.137619601652</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601652</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5756,19 +5758,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.0973401405612</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,22 +5913,22 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066043</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745653</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O22" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q22" t="n">
         <v>2718.920450173579</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>624.4588635952861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>454.7008598460233</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>277.9938058077795</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>277.9938058077795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6406,16 +6408,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
         <v>2117.975449367836</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6549,7 +6551,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
         <v>1765.500601749588</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,46 +6706,46 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3435.538389938438</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3262.976678421663</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3097.098685623185</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2927.340681873923</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2750.633627835679</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3854.776679343317</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3627.357008657425</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6971,7 +6973,7 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917135</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932362</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439735</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057297</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1015.727725908489</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,28 +7180,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1552.591825232937</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1552.591825232937</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1116.682040407382</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>682.907295565677</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>255.0398659748848</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677762</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>56.12639965677762</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>750.6905954094007</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.254791162024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2139.818986914646</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838881</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838881</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2387.177519418192</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1978.891395717845</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723522</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723522</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>82.19007281723522</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>776.7542685698583</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1471.318464322481</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1471.318464322481</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1471.318464322481</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>899.1542103536935</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>726.5924988369185</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>560.7145060384412</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>390.9565022891784</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>214.2494482509346</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>189.6603729360812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.6603729360812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>276.240058100771</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719066</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>969.2083944398677</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.692261620781</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778425</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004207</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.127207974549</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.319982838881</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2806.319982838881</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2647.078614136878</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2401.199167715333</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2122.766166968438</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1835.810658838868</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1563.78425442516</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.392499758573</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1090.972829072681</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>746.6543855902975</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>746.6543855902975</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>746.6543855902975</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>746.6543855902975</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>746.6543855902975</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677762</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>750.6905954094007</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="L44" t="n">
-        <v>1417.191591333635</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.191591333635</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N44" t="n">
-        <v>2111.755787086258</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838881</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838881</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2767.854947851381</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2405.237997785208</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.382543196241</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1581.240079775552</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1172.953956075205</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351365</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188007</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661514</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486742</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744541</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838881</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287264</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617834</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431128</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>59.29765367700296</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677762</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>79.31589866453203</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611149</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>30.91440664741879</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191114</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8456,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>30.03100411261585</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8538,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.850551167483</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>318.2869303146739</v>
+        <v>757.9381297620657</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9404,22 +9406,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10352,25 +10354,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>469.2069973599081</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10828,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.1968875947125</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2735200988871</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.5921776627299</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>73.62918697962075</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.5737013841627</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.27974144948482</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>140.7232059832976</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.259235827648</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>69.71657238081416</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>52.30086641797079</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>227.3655273957962</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.23652828778057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>200.8721428871741</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>218.5496950185286</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>74.15349933190419</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>596532.448938601</v>
+        <v>579072.3460578667</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>596532.448938601</v>
+        <v>593868.3888850212</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410978.2861584006</v>
+        <v>620929.6963953224</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410978.2861584006</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620929.6963953224</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410978.2861584006</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410978.2861584006</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178065</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178064</v>
@@ -26320,19 +26322,19 @@
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661555</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
         <v>395143.1881030141</v>
@@ -26341,19 +26343,19 @@
         <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030143</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501622</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499827</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045618</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877257</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662226</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340744</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173889.5352664431</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>173889.5352664431</v>
+        <v>179718.6327917065</v>
       </c>
       <c r="D4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>62797.73829708049</v>
+        <v>94878.44464875282</v>
       </c>
       <c r="F4" t="n">
-        <v>62797.73829708049</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="G4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="H4" t="n">
         <v>94878.44464875283</v>
       </c>
-      <c r="H4" t="n">
-        <v>94878.44464875286</v>
-      </c>
       <c r="I4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94878.44464875291</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="O4" t="n">
-        <v>62797.73829708053</v>
-      </c>
-      <c r="P4" t="n">
-        <v>62797.73829708053</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69691.26849443918</v>
+        <v>-11598.71831634385</v>
       </c>
       <c r="C6" t="n">
-        <v>154008.4300896056</v>
+        <v>83847.87542308104</v>
       </c>
       <c r="D6" t="n">
-        <v>154008.4300896056</v>
+        <v>142480.8345396229</v>
       </c>
       <c r="E6" t="n">
-        <v>145910.8811294679</v>
+        <v>40191.39562741906</v>
       </c>
       <c r="F6" t="n">
-        <v>156081.8777299241</v>
+        <v>222546.5048484688</v>
       </c>
       <c r="G6" t="n">
-        <v>64487.02790235952</v>
+        <v>222546.5048484688</v>
       </c>
       <c r="H6" t="n">
+        <v>222546.5048484689</v>
+      </c>
+      <c r="I6" t="n">
         <v>222546.5048484688</v>
       </c>
-      <c r="I6" t="n">
-        <v>222546.5048484687</v>
-      </c>
       <c r="J6" t="n">
-        <v>47895.1561307626</v>
+        <v>111532.0395034786</v>
       </c>
       <c r="K6" t="n">
+        <v>169500.6502096962</v>
+      </c>
+      <c r="L6" t="n">
+        <v>213154.2031218465</v>
+      </c>
+      <c r="M6" t="n">
+        <v>70346.33391048113</v>
+      </c>
+      <c r="N6" t="n">
         <v>222546.5048484688</v>
       </c>
-      <c r="L6" t="n">
-        <v>222546.5048484689</v>
-      </c>
-      <c r="M6" t="n">
-        <v>214057.4231451281</v>
-      </c>
-      <c r="N6" t="n">
-        <v>222546.5048484687</v>
-      </c>
       <c r="O6" t="n">
-        <v>156081.8777299241</v>
+        <v>222546.5048484688</v>
       </c>
       <c r="P6" t="n">
-        <v>156081.8777299241</v>
+        <v>222546.5048484688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097205</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939318</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186353</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750248</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939318</v>
       </c>
       <c r="M4" t="n">
-        <v>34.0647891018633</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939318</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186353</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750248</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>307.0841592993282</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>286.4549539453737</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.46287890933</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>156.6506965804665</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.95472178413479</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>289.568518111646</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>255.4415926528202</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
-        <v>224.2688042213269</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V10" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28296,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.475613270440144e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-4.491935849234246e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>79.31589866453203</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611149</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>30.91440664741879</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,10 +35108,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>204.0749767191114</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35176,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>30.03100411261585</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35190,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35258,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.850551167483</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>318.2869303146739</v>
+        <v>757.9381297620657</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36124,22 +36126,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36279,25 +36281,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960958</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.358033040607337e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>469.2069973599081</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,10 +37548,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.1968875947125</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37947,7 +37949,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512943</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1191298.222741597</v>
+        <v>1190773.040372565</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916863</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
-      </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>137.1338013495106</v>
+        <v>30.46421029890933</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>86.7699553768628</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>173.5591556145158</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>409.740169109081</v>
       </c>
       <c r="C5" t="n">
-        <v>418.8063263042761</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>102.5422530891139</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>13.86454771675118</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.1589972036696</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>281.4472552123553</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,7 +1144,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.30825486906734</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117739</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>115.7595572937946</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.503152566534</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1776,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>114.8528499950164</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>94.50264048967837</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>82.14201637551359</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>48.28314334362825</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366313</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>134.2263799291268</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>201.4951714075215</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1351.042333103999</v>
+        <v>846.680625966315</v>
       </c>
       <c r="C2" t="n">
-        <v>922.4606588412671</v>
+        <v>812.5785571901424</v>
       </c>
       <c r="D2" t="n">
-        <v>890.5912780561157</v>
+        <v>383.9968829274108</v>
       </c>
       <c r="E2" t="n">
-        <v>462.009603793384</v>
+        <v>354.26254212611</v>
       </c>
       <c r="F2" t="n">
         <v>323.4906125312521</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.547219208445</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.301499548503</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>857.0776321906106</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.130531135514</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1697.183430080417</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.183430080417</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1609.537010507829</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1331.104009760934</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1044.148501631365</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>772.1220972176561</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>526.7303425510686</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.3166163358201</v>
+        <v>169.9652025024901</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2799230991775</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>104.4105423140261</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>74.6762015127253</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>485.687074042395</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726453</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
         <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657692</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530731</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>2217.900228530731</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>2217.900228530731</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.044773941764</v>
+        <v>1411.272748319567</v>
       </c>
       <c r="X5" t="n">
-        <v>1393.902310521074</v>
+        <v>992.1302848988781</v>
       </c>
       <c r="Y5" t="n">
-        <v>985.6161868207279</v>
+        <v>583.8441611985315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.4960597499347</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>431.6596472970916</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970916</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>838.9151821155833</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>666.3534705988083</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>500.475477800331</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>330.7174740510682</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>154.0104200128244</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>266.2978593068801</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>684.5077410748412</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
         <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055679</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="U7" t="n">
-        <v>2095.080693055679</v>
+        <v>2062.527138730328</v>
       </c>
       <c r="V7" t="n">
-        <v>1808.125184926109</v>
+        <v>1775.571630600758</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1503.54522618705</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1258.153471520462</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>1030.733800834571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2480.040423909638</v>
+        <v>1922.147703832814</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.897951093061</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.988166267505</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
         <v>744.3459918350084</v>
@@ -4810,16 +4810,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O8" t="n">
         <v>1293.567921177998</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2649.897996842637</v>
+        <v>1944.406870277317</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5044,22 +5044,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
         <v>4943.887948785925</v>
@@ -5071,22 +5071,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477146</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309396</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324623</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>447.7518095570423</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057346</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5278,28 +5278,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5308,22 +5308,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1068.769857140657</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>896.2081456238817</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>730.3301528254044</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238763</v>
+        <v>560.5721490761416</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>383.8650950378978</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>218.2738200637255</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5454,34 +5454,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176946</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755401</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2292.381813755401</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>2005.426305625832</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1733.399901212123</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1488.008146545536</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1260.588475859644</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5515,25 +5515,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>852.6195887352246</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2009.667423945775</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5679,46 +5679,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745653</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5764,13 +5764,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5785,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5913,49 +5913,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066043</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745653</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955478</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,25 +6071,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,46 +6706,46 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>936.6111322289576</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987181</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7180,10 +7180,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7204,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7350,34 +7350,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,10 +7417,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7441,22 +7441,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7651,31 +7651,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
         <v>4809.322912595856</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>79.31589866453203</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611149</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741879</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987002</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191114</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8458,19 +8458,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>69.04441372935707</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>757.9381297620657</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9184,7 +9184,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>638.2669124058198</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9889,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,16 +10123,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>531.8762684426497</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.5921776627299</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>48.17580493063602</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>23.65030257151281</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>69.71657238081416</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.631333357557821</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>122.9308428424015</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>135.0797604404446</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>74.15349933190419</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620929.6963953224</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620929.6963953226</v>
+        <v>620929.6963953227</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620929.6963953226</v>
+        <v>620929.6963953224</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620929.6963953226</v>
+        <v>620929.6963953227</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178064</v>
@@ -26322,22 +26322,22 @@
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="F2" t="n">
         <v>395143.1881030141</v>
-      </c>
-      <c r="F2" t="n">
-        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030142</v>
@@ -26349,13 +26349,13 @@
         <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="O2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="O2" t="n">
-        <v>395143.1881030143</v>
-      </c>
       <c r="P2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501622</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.5955499827</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877257</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662226</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,43 +26420,43 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917065</v>
+        <v>179718.6327917066</v>
       </c>
       <c r="D4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>94878.44464875282</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="I4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="J4" t="n">
         <v>94878.44464875288</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="L4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="L4" t="n">
-        <v>94878.44464875291</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
         <v>94878.44464875289</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11598.71831634385</v>
+        <v>-11598.71831634381</v>
       </c>
       <c r="C6" t="n">
-        <v>83847.87542308104</v>
+        <v>83847.87542308106</v>
       </c>
       <c r="D6" t="n">
-        <v>142480.8345396229</v>
+        <v>142480.8345396228</v>
       </c>
       <c r="E6" t="n">
-        <v>40191.39562741906</v>
+        <v>40168.17128803644</v>
       </c>
       <c r="F6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="G6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="H6" t="n">
-        <v>222546.5048484689</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="I6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="J6" t="n">
-        <v>111532.0395034786</v>
+        <v>111508.815164096</v>
       </c>
       <c r="K6" t="n">
-        <v>169500.6502096962</v>
+        <v>169477.4258703137</v>
       </c>
       <c r="L6" t="n">
-        <v>213154.2031218465</v>
+        <v>213130.9787824638</v>
       </c>
       <c r="M6" t="n">
-        <v>70346.33391048113</v>
+        <v>70323.10957109847</v>
       </c>
       <c r="N6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090863</v>
       </c>
       <c r="O6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="P6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090862</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939318</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939318</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939318</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F2" t="n">
-        <v>286.4549539453737</v>
+        <v>393.124544995975</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27441,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27548,7 +27548,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>156.6506965804665</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>51.58631836451698</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>12.29640567097772</v>
       </c>
       <c r="C5" t="n">
-        <v>14.95472178413479</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>61.39310913531675</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>255.4415926528202</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.8775775763891</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>152.3137928760556</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>69.71657238081428</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-3.462733867707496e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-4.942272934864269e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.82354667764418e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28751,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-7.866279785916069e-13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>79.31589866453203</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611149</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741879</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987002</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191114</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35178,19 +35178,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>69.04441372935707</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165052</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>757.9381297620657</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35904,7 +35904,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080407</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,16 +36132,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36281,25 +36281,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960958</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>638.2669124058198</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,16 +36843,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>531.8762684426497</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37624,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37718,7 +37718,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37861,10 +37861,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
